--- a/downloaded_files/EPES203_Lecture-35400.xlsx
+++ b/downloaded_files/EPES203_Lecture-35400.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
   <x:si>
     <x:t>1230141</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -699,7 +708,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45921.7521790162</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES203_Lecture-35400.xlsx
+++ b/downloaded_files/EPES203_Lecture-35400.xlsx
@@ -162,7 +162,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -706,7 +706,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
